--- a/SYLLABUS.xlsx
+++ b/SYLLABUS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unaulaedu-my.sharepoint.com/personal/erika_badilloen_unaula_edu_co/Documents/1 Econometria/1 ECONOMETRIA I-UNAULA/Administrativo/2023-2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INVESTIGADOR\OneDrive - Universidad Autónoma Latinoamericana\1 Econometria\1 ECONOMETRIA I-UNAULA\Administrativo\2024-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{1B2D6B9B-7A5E-4E0A-B636-B9120AABC182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E11152E-E3FF-4164-A323-0C08BB87EE1E}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{1B2D6B9B-7A5E-4E0A-B636-B9120AABC182}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{16AF9826-E32C-4561-AC8D-EBF3C79B415E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Econometria 1" sheetId="2" r:id="rId1"/>
@@ -540,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -600,76 +600,79 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1047,39 +1050,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32E99E6-F569-4B34-A543-247EB1F280A6}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21:K41"/>
+    <sheetView tabSelected="1" topLeftCell="H12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39:L41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.54296875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="5" customWidth="1"/>
     <col min="3" max="3" width="7" style="5" customWidth="1"/>
     <col min="4" max="4" width="50" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.1796875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="34.54296875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="27.1796875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="27.81640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="29.7265625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="38.54296875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="27.1796875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="27.453125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="29.7109375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="27.140625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="27.42578125" style="5" customWidth="1"/>
     <col min="13" max="13" width="30" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="10.81640625" style="5"/>
+    <col min="14" max="16384" width="10.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="44"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45" t="s">
+    <row r="1" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
       <c r="I1" s="6" t="s">
         <v>33</v>
       </c>
@@ -1087,15 +1090,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
+    <row r="2" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
       <c r="I2" s="6" t="s">
         <v>34</v>
       </c>
@@ -1103,23 +1106,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
+    <row r="3" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
       <c r="I3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="11">
-        <v>45139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
@@ -1127,55 +1130,55 @@
       <c r="I4" s="23"/>
       <c r="J4" s="23"/>
     </row>
-    <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="33" t="s">
+    <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="43" t="s">
+      <c r="B6" s="28"/>
+      <c r="C6" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="33" t="s">
+    <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="43" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
       <c r="I7" s="7" t="s">
         <v>10</v>
       </c>
@@ -1186,35 +1189,35 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="33" t="s">
+    <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="43" t="s">
+      <c r="B8" s="28"/>
+      <c r="C8" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="33" t="s">
+    <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="43">
+      <c r="B9" s="28"/>
+      <c r="C9" s="29">
         <v>3</v>
       </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
       <c r="F9" s="7" t="s">
         <v>13</v>
       </c>
@@ -1224,46 +1227,46 @@
       <c r="H9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="43">
+      <c r="I9" s="29">
         <v>80</v>
       </c>
-      <c r="J9" s="43"/>
+      <c r="J9" s="29"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="33" t="s">
+    <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="43" t="s">
+      <c r="B10" s="28"/>
+      <c r="C10" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
       <c r="H10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="43" t="s">
+      <c r="I10" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="43"/>
+      <c r="J10" s="29"/>
       <c r="K10" s="4"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="37" t="s">
+    <row r="11" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="38" t="s">
+      <c r="B11" s="32"/>
+      <c r="C11" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="38"/>
+      <c r="D11" s="33"/>
       <c r="E11" s="18" t="s">
         <v>42</v>
       </c>
@@ -1276,89 +1279,89 @@
       <c r="H11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="40" t="s">
+    <row r="12" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="41" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="42">
-        <v>0.7</v>
-      </c>
-      <c r="J12" s="42"/>
+      <c r="I12" s="37">
+        <v>0.9</v>
+      </c>
+      <c r="J12" s="37"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="33" t="s">
+    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="126" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="34" t="s">
+    <row r="14" spans="1:13" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="36" t="s">
+    <row r="15" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="34" t="s">
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -1373,24 +1376,24 @@
       <c r="L16" s="22"/>
       <c r="M16" s="22"/>
     </row>
-    <row r="17" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="33" t="s">
+    <row r="17" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
       <c r="K17" s="21"/>
       <c r="L17" s="21"/>
       <c r="M17" s="21"/>
     </row>
-    <row r="18" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1405,523 +1408,583 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="32" t="s">
+    <row r="19" spans="1:13" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32" t="s">
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="36"/>
-      <c r="G19" s="32" t="s">
+      <c r="F19" s="39"/>
+      <c r="G19" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="32" t="s">
+      <c r="H19" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="32" t="s">
+      <c r="I19" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="32" t="s">
+      <c r="J19" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="K19" s="32" t="s">
+      <c r="K19" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="L19" s="32" t="s">
+      <c r="L19" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="M19" s="32" t="s">
+      <c r="M19" s="38" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="15" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
+    <row r="20" spans="1:13" s="15" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="9" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-    </row>
-    <row r="21" spans="1:13" s="12" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="27" t="s">
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+    </row>
+    <row r="21" spans="1:13" s="12" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="46" t="s">
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="F21" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="G21" s="30" t="s">
+      <c r="G21" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="H21" s="31" t="s">
+      <c r="H21" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="I21" s="30" t="s">
+      <c r="I21" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="J21" s="31" t="s">
+      <c r="J21" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="K21" s="30" t="s">
+      <c r="K21" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="L21" s="31" t="s">
+      <c r="L21" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="M21" s="27" t="s">
+      <c r="M21" s="42" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="12" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="28"/>
-    </row>
-    <row r="23" spans="1:13" s="12" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="28"/>
-    </row>
-    <row r="24" spans="1:13" s="12" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="28"/>
-    </row>
-    <row r="25" spans="1:13" s="12" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="27" t="s">
+    <row r="22" spans="1:13" s="12" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="49"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="43"/>
+    </row>
+    <row r="23" spans="1:13" s="12" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="43"/>
+    </row>
+    <row r="24" spans="1:13" s="12" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="43"/>
+    </row>
+    <row r="25" spans="1:13" s="12" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
       <c r="D25" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="G25" s="30"/>
-      <c r="H25" s="25" t="s">
+      <c r="G25" s="44"/>
+      <c r="H25" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="I25" s="30"/>
-      <c r="J25" s="25" t="s">
+      <c r="I25" s="44"/>
+      <c r="J25" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="K25" s="30"/>
-      <c r="L25" s="25" t="s">
+      <c r="K25" s="44"/>
+      <c r="L25" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="M25" s="27" t="s">
+      <c r="M25" s="42" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="12" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
+    <row r="26" spans="1:13" s="12" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
       <c r="D26" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="28"/>
-    </row>
-    <row r="27" spans="1:13" s="12" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="43"/>
+    </row>
+    <row r="27" spans="1:13" s="12" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
       <c r="D27" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="28"/>
-    </row>
-    <row r="28" spans="1:13" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="27" t="s">
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="43"/>
+    </row>
+    <row r="28" spans="1:13" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
       <c r="D28" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="25" t="s">
+      <c r="G28" s="44"/>
+      <c r="H28" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="I28" s="30"/>
-      <c r="J28" s="25" t="s">
+      <c r="I28" s="44"/>
+      <c r="J28" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="K28" s="30"/>
-      <c r="L28" s="25" t="s">
+      <c r="K28" s="44"/>
+      <c r="L28" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="M28" s="27" t="s">
+      <c r="M28" s="42" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
+    <row r="29" spans="1:13" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="49"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
       <c r="D29" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="28"/>
-    </row>
-    <row r="30" spans="1:13" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="43"/>
+    </row>
+    <row r="30" spans="1:13" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="49"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
       <c r="D30" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="28"/>
-    </row>
-    <row r="31" spans="1:13" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="43"/>
+    </row>
+    <row r="31" spans="1:13" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="49"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="25"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="46"/>
       <c r="M31" s="13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
+    <row r="32" spans="1:13" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="49"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
       <c r="D32" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="25"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="46"/>
       <c r="M32" s="13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
+    <row r="33" spans="1:13" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="49"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
       <c r="D33" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="25"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="46"/>
       <c r="M33" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="12" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="27" t="s">
+    <row r="34" spans="1:13" s="12" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
       <c r="D34" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="F34" s="25" t="s">
+      <c r="F34" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="G34" s="30"/>
-      <c r="H34" s="25" t="s">
+      <c r="G34" s="44"/>
+      <c r="H34" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="I34" s="30"/>
-      <c r="J34" s="25" t="s">
+      <c r="I34" s="44"/>
+      <c r="J34" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="K34" s="30"/>
-      <c r="L34" s="31" t="s">
+      <c r="K34" s="44"/>
+      <c r="L34" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="M34" s="27" t="s">
+      <c r="M34" s="42" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="12" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
+    <row r="35" spans="1:13" s="12" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="49"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
       <c r="D35" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-    </row>
-    <row r="36" spans="1:13" s="12" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+    </row>
+    <row r="36" spans="1:13" s="12" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="49"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
       <c r="D36" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-    </row>
-    <row r="37" spans="1:13" s="12" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+    </row>
+    <row r="37" spans="1:13" s="12" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="49"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
       <c r="D37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-    </row>
-    <row r="38" spans="1:13" s="12" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+    </row>
+    <row r="38" spans="1:13" s="12" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="49"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="28"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="43"/>
       <c r="M38" s="13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="12" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="27" t="s">
+    <row r="39" spans="1:13" s="12" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
       <c r="D39" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E39" s="25" t="s">
+      <c r="E39" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="F39" s="25" t="s">
+      <c r="F39" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="G39" s="30"/>
-      <c r="H39" s="25" t="s">
+      <c r="G39" s="44"/>
+      <c r="H39" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="I39" s="30"/>
-      <c r="J39" s="25" t="s">
+      <c r="I39" s="44"/>
+      <c r="J39" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="K39" s="30"/>
-      <c r="L39" s="31" t="s">
+      <c r="K39" s="44"/>
+      <c r="L39" s="45" t="s">
         <v>89</v>
       </c>
       <c r="M39" s="13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="12" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
+    <row r="40" spans="1:13" s="12" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="49"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
       <c r="D40" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="28"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="43"/>
       <c r="M40" s="13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="12" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
+    <row r="41" spans="1:13" s="12" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="49"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
       <c r="D41" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="28"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="43"/>
       <c r="M41" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="29" t="s">
+    <row r="42" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="26" t="s">
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="26"/>
-    </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="48"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F49" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="76">
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="D42:M42"/>
+    <mergeCell ref="L28:L33"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="J28:J33"/>
+    <mergeCell ref="M34:M37"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="J39:J41"/>
+    <mergeCell ref="I21:I41"/>
+    <mergeCell ref="A34:C38"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E28:E33"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F28:F33"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="M21:M24"/>
+    <mergeCell ref="A25:C27"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="A28:C33"/>
+    <mergeCell ref="M28:M30"/>
+    <mergeCell ref="A21:C24"/>
+    <mergeCell ref="G21:G41"/>
+    <mergeCell ref="A39:C41"/>
+    <mergeCell ref="L39:L41"/>
+    <mergeCell ref="K21:K41"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="L34:L38"/>
+    <mergeCell ref="J34:J38"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="H28:H33"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="I12:J12"/>
     <mergeCell ref="D21:D24"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:G10"/>
@@ -1938,66 +2001,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="I9:J9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="A19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M24"/>
-    <mergeCell ref="A25:C27"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="A28:C33"/>
-    <mergeCell ref="M28:M30"/>
-    <mergeCell ref="A21:C24"/>
-    <mergeCell ref="G21:G41"/>
-    <mergeCell ref="A39:C41"/>
-    <mergeCell ref="L39:L41"/>
-    <mergeCell ref="K21:K41"/>
-    <mergeCell ref="L21:L24"/>
-    <mergeCell ref="L34:L38"/>
-    <mergeCell ref="J34:J38"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="H28:H33"/>
-    <mergeCell ref="H34:H38"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="J39:J41"/>
-    <mergeCell ref="I21:I41"/>
-    <mergeCell ref="A34:C38"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E28:E33"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F28:F33"/>
-    <mergeCell ref="F34:F38"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="H21:H24"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="D42:M42"/>
-    <mergeCell ref="L28:L33"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="J28:J33"/>
-    <mergeCell ref="M34:M37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2014,15 +2017,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100021BDFB3DE389241985DD3ECE6A883C1" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd46bceb14d12cbf3416067b4b46f7e4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b29b449e-7162-44aa-9763-2c5c9b64f3a6" xmlns:ns4="dd128a87-8000-4219-ba10-7cdcd0c49e6f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dead0d01be59ea959339d537441418d2" ns3:_="" ns4:_="">
     <xsd:import namespace="b29b449e-7162-44aa-9763-2c5c9b64f3a6"/>
@@ -2257,32 +2251,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{167F625F-070B-4A4E-BB00-AE07C3F9A4DE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="dd128a87-8000-4219-ba10-7cdcd0c49e6f"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="b29b449e-7162-44aa-9763-2c5c9b64f3a6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCE42BE9-5CB5-4833-8377-DD59E435EDA7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{226BD247-9B1A-40C7-AF02-C9B9A9F25AE6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2299,4 +2294,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCE42BE9-5CB5-4833-8377-DD59E435EDA7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SYLLABUS.xlsx
+++ b/SYLLABUS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INVESTIGADOR\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unaulaedu-my.sharepoint.com/personal/erika_badilloen_unaula_edu_co/Documents/1 Econometria/1 ECONOMETRIA I-UNAULA/Administrativo/2024-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A35C114-443C-48DD-A87A-B3E18D68B2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="8_{1B2D6B9B-7A5E-4E0A-B636-B9120AABC182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E68CFF95-E097-44F5-8A4E-7B40AA98912E}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="-45" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Econometria 1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
   <si>
     <t>Programa Académico</t>
   </si>
@@ -172,13 +172,7 @@
     <t>CUANTITATIVA - BÁSICA PROFESIONAL</t>
   </si>
   <si>
-    <t>ESTADISTICA II</t>
-  </si>
-  <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>Plataforma Moodle, diapositivas, Teams (para las clases asistidas por tecnologías), computadora con proyector a video beam o televisor, pizarra digital, softwares econométricos R (o Stata), Excel</t>
   </si>
   <si>
     <t xml:space="preserve">En la formación académica de los economistas la econometría es una de las asignaturas que permiten distinguir el perfil del economista de otras disciplinas. Pero al mismo tiempo permite la interdisciplinariedad y el desarrollo de competencias transversales. La econometría es una herramienta cuantitativa que hace uso de la teoría económica, las matemáticas y la estadística y es utilizado por los economistas para analizar desde un punto de vista empírico las relaciones económicas y sociales que sugiere la teoría.
@@ -265,13 +259,6 @@
 </t>
   </si>
   <si>
-    <t>3.10. Referencias
-Libros guía
-W: Wooldridge
-G: Gujarati
-J: Judge</t>
-  </si>
-  <si>
     <t>W: Cap 4
 G: Cap 5</t>
   </si>
@@ -308,36 +295,16 @@
 * Formular y optimizar sistemas de información para la toma de decisiones</t>
   </si>
   <si>
-    <t>* Presentación magistral del profesor de los conceptos
-* Ejercicio aplicado en R
-* Ejercicios aplicados en Stata se dejan como consulta
-* Motivación al estudiante para que profundice, a través de la consulta y la lectura, los conceptos necesarios para resolver los problemas propuestos, ejercicios, talleres, actividades, quices</t>
-  </si>
-  <si>
     <t>Al final de este curso: 
 El estudiante es capaz de plantear problemas y soluciones utilizando el conocimiento económico y herramientas cuantitativas
 El estudiante es capaz de poner en práctica adecuadamente y con la rigurosidad de cada caso las herramientas cuantitativas dadas en el curso</t>
   </si>
   <si>
-    <t>* Presentación magistral del profesor de los conceptos
-* Ejercicio aplicado en R
-* Ejercicios aplicados en Stata se dejan como consulta
-* Motivación al estudiante para que profundice, a través de la consulta y la lectura, los conceptos necesarios para resolver los problemas propuestos, ejercicios, talleres, actividades, quices
-* Trabajo final</t>
-  </si>
-  <si>
     <t xml:space="preserve">* Actividades de seguimiento donde el estudiante aplica y respasa o profundiza en los diferentes conceptos y procedimientos aprendidos en la clase y manejo de sotware
 </t>
   </si>
   <si>
     <t>* Actividades de seguimiento donde el estudiante aplica y respasa o profundiza en los diferentes conceptos y procedimientos aprendidos en la clase y manejo de sotware</t>
-  </si>
-  <si>
-    <t>* Presentación magistral del profesor de los conceptos
-* Ejercicio aplicado en R
-* Ejercicios aplicados en Stata se dejan como consulta
-* Motivación al estudiante para que profundice, a través de la consulta y la lectura, los conceptos necesarios para resolver los problemas propuestos, ejercicios, talleres, actividades, quices
-* Trabajo final (presentación oral y escrita)</t>
   </si>
   <si>
     <t>Erika Badillo</t>
@@ -362,19 +329,57 @@
     <t>Repaso de conceptos estadísticos y manejo de software</t>
   </si>
   <si>
-    <t>Repaso de conceptos estadísticos básicos</t>
-  </si>
-  <si>
-    <t>* Ejercicio aplicado en R
-* Ejercicios aplicados en Stata se dejan como consulta
-* Motivación al estudiante para que profundice, a través de la consulta y la lectura, los conceptos necesarios para resolver los problemas propuestos, ejercicios, talleres, actividades, quices</t>
-  </si>
-  <si>
     <t>* Los estudiantes deben realizar las lecturas propuestas en cada tema
 * Se deben realizar las actividades de seguimiento  propuestas
 * El estudiante tiene como recurso talleres que permiten hacer un repaso de cada uno de los temas
 * El estudiante debe realizar un trabajo donde se responde a una pregunta de interés de acuerdo al procedimiento econométrico aprendido en el curso, de este trabajo se realiza un seguimiento a lo largo de todo el semestre 
 * Asistir a las monitorias (en caso de que se abra)</t>
+  </si>
+  <si>
+    <t>ECO</t>
+  </si>
+  <si>
+    <t>ESTADISTICA (Pensum nuevo), ESTADISTICA II (Anteriores)</t>
+  </si>
+  <si>
+    <t>Plataforma Moodle, diapositivas, Teams (para las clases asistidas por tecnologías), computadora con proyector a video beam o televisor, pizarra digital, softwares econométricos Rstudio (o Stata), Excel</t>
+  </si>
+  <si>
+    <t>* Ejercicio aplicado en Rstudio
+* Ejercicios aplicados en Stata se dejan como consulta
+* Motivación al estudiante para que profundice, a través de la consulta y la lectura, los conceptos necesarios para resolver los problemas propuestos, ejercicios, talleres, actividades, quices</t>
+  </si>
+  <si>
+    <t>* Presentación magistral del profesor de los conceptos
+* Ejercicio aplicado en Rstudio
+* Ejercicios aplicados en Stata se dejan como consulta
+* Motivación al estudiante para que profundice, a través de la consulta y la lectura, los conceptos necesarios para resolver los problemas propuestos, ejercicios, talleres, actividades, quices</t>
+  </si>
+  <si>
+    <t>* Presentación magistral del profesor de los conceptos
+* Ejercicio aplicado en Rstudio
+* Ejercicios aplicados en Stata se dejan como consulta
+* Motivación al estudiante para que profundice, a través de la consulta y la lectura, los conceptos necesarios para resolver los problemas propuestos, ejercicios, talleres, actividades, quices
+* Trabajo final (presentación oral y escrita)</t>
+  </si>
+  <si>
+    <t>3.10. Referencias
+Libros guía
+SW: Stock y Watson
+W: Wooldridge
+G: Gujarati
+J: Judge</t>
+  </si>
+  <si>
+    <t>* Presentación magistral del profesor de los conceptos
+* Ejercicio aplicado en Rstudio
+* Ejercicios aplicados en Stata se dejan como consulta
+* Motivación al estudiante para que profundice, a través de la consulta y la lectura, los conceptos necesarios para resolver los problemas propuestos, ejercicios, talleres, actividades, quices
+* Trabajo final</t>
+  </si>
+  <si>
+    <t>Repaso de conceptos estadísticos básicos
+(MUY GENERAL)</t>
   </si>
 </sst>
 </file>
@@ -597,80 +602,80 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -742,6 +747,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1043,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32E99E6-F569-4B34-A543-247EB1F280A6}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:C27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,8 +1065,8 @@
     <col min="5" max="5" width="16.140625" style="5" customWidth="1"/>
     <col min="6" max="6" width="34.5703125" style="5" customWidth="1"/>
     <col min="7" max="7" width="27.140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="27.85546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="29.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="31.5703125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="35.140625" style="5" customWidth="1"/>
     <col min="10" max="10" width="38.5703125" style="5" customWidth="1"/>
     <col min="11" max="11" width="27.140625" style="5" customWidth="1"/>
     <col min="12" max="12" width="27.42578125" style="5" customWidth="1"/>
@@ -1066,16 +1075,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="49" t="s">
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
       <c r="I1" s="6" t="s">
         <v>33</v>
       </c>
@@ -1084,14 +1093,14 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
       <c r="I2" s="6" t="s">
         <v>34</v>
       </c>
@@ -1100,18 +1109,20 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
       <c r="I3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="11"/>
+      <c r="J3" s="11">
+        <v>45689</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="17"/>
@@ -1122,91 +1133,93 @@
       <c r="J4" s="23"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="47" t="s">
+      <c r="B6" s="28"/>
+      <c r="C6" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="47" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
       <c r="I7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="47" t="s">
+      <c r="B8" s="28"/>
+      <c r="C8" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="47">
+      <c r="B9" s="28"/>
+      <c r="C9" s="29">
         <v>3</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
       <c r="F9" s="7" t="s">
         <v>13</v>
       </c>
@@ -1216,136 +1229,134 @@
       <c r="H9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="47">
+      <c r="I9" s="29">
         <v>80</v>
       </c>
-      <c r="J9" s="47"/>
+      <c r="J9" s="29"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="47" t="s">
+      <c r="B10" s="28"/>
+      <c r="C10" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
       <c r="H10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="47"/>
+      <c r="I10" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="29"/>
       <c r="K10" s="4"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="39" t="s">
+      <c r="B11" s="32"/>
+      <c r="C11" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="39"/>
+      <c r="D11" s="33"/>
       <c r="E11" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="18" t="s">
-        <v>41</v>
-      </c>
+      <c r="G11" s="18"/>
       <c r="H11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="43">
+      <c r="I12" s="37">
         <v>0.9</v>
       </c>
-      <c r="J12" s="43"/>
+      <c r="J12" s="37"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
+      <c r="A14" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -1366,18 +1377,18 @@
       <c r="M16" s="22"/>
     </row>
     <row r="17" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
       <c r="K17" s="21"/>
       <c r="L17" s="21"/>
       <c r="M17" s="21"/>
@@ -1398,522 +1409,582 @@
       <c r="M18" s="3"/>
     </row>
     <row r="19" spans="1:13" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31" t="s">
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="37"/>
-      <c r="G19" s="31" t="s">
+      <c r="F19" s="39"/>
+      <c r="G19" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="31" t="s">
+      <c r="H19" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="31" t="s">
+      <c r="I19" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="31" t="s">
+      <c r="J19" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="K19" s="31" t="s">
+      <c r="K19" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="L19" s="31" t="s">
+      <c r="L19" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="M19" s="31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="15" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
+      <c r="M19" s="38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="15" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="9" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-    </row>
-    <row r="21" spans="1:13" s="12" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+    </row>
+    <row r="21" spans="1:13" s="12" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="J21" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="K21" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="L21" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="M21" s="42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="12" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="43"/>
+    </row>
+    <row r="23" spans="1:13" s="12" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="43"/>
+    </row>
+    <row r="24" spans="1:13" s="12" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="43"/>
+    </row>
+    <row r="25" spans="1:13" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="45"/>
+      <c r="H25" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="I25" s="45"/>
+      <c r="J25" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="K25" s="45"/>
+      <c r="L25" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="M25" s="42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="43"/>
+    </row>
+    <row r="27" spans="1:13" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="43"/>
+    </row>
+    <row r="28" spans="1:13" s="12" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="45"/>
+      <c r="H28" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="I28" s="45"/>
+      <c r="J28" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="K28" s="45"/>
+      <c r="L28" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="M28" s="42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="12" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="43"/>
+    </row>
+    <row r="30" spans="1:13" s="12" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="43"/>
+    </row>
+    <row r="31" spans="1:13" s="12" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="12" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="12" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="12" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34" s="45"/>
+      <c r="H34" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="I34" s="45"/>
+      <c r="J34" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="K34" s="45"/>
+      <c r="L34" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="M34" s="42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="44"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+    </row>
+    <row r="36" spans="1:13" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="44"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+    </row>
+    <row r="37" spans="1:13" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="44"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+    </row>
+    <row r="38" spans="1:13" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="44"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" s="12" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="G39" s="45"/>
+      <c r="H39" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="I39" s="45"/>
+      <c r="J39" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="H21" s="33" t="s">
+      <c r="K39" s="45"/>
+      <c r="L39" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="M39" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="12" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="44"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="12" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="44"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="I21" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="J21" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="K21" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="L21" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="M21" s="27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="12" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="28"/>
-    </row>
-    <row r="23" spans="1:13" s="12" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="28"/>
-    </row>
-    <row r="24" spans="1:13" s="12" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="28"/>
-    </row>
-    <row r="25" spans="1:13" s="12" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="G25" s="30"/>
-      <c r="H25" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="I25" s="30"/>
-      <c r="J25" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="K25" s="30"/>
-      <c r="L25" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="M25" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="12" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="28"/>
-    </row>
-    <row r="27" spans="1:13" s="12" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="28"/>
-    </row>
-    <row r="28" spans="1:13" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="I28" s="30"/>
-      <c r="J28" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="K28" s="30"/>
-      <c r="L28" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="M28" s="27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="28"/>
-    </row>
-    <row r="30" spans="1:13" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="28"/>
-    </row>
-    <row r="31" spans="1:13" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" s="12" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="G34" s="30"/>
-      <c r="H34" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="I34" s="30"/>
-      <c r="J34" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="K34" s="30"/>
-      <c r="L34" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="M34" s="27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" s="12" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-    </row>
-    <row r="36" spans="1:13" s="12" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-    </row>
-    <row r="37" spans="1:13" s="12" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-    </row>
-    <row r="38" spans="1:13" s="12" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" s="12" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F39" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="G39" s="30"/>
-      <c r="H39" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="I39" s="30"/>
-      <c r="J39" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="K39" s="30"/>
-      <c r="L39" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="M39" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" s="12" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" s="12" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="32"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="26"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="49"/>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F49" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="76">
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="D42:M42"/>
+    <mergeCell ref="L28:L33"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="J28:J33"/>
+    <mergeCell ref="M34:M37"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="J39:J41"/>
+    <mergeCell ref="I21:I41"/>
+    <mergeCell ref="A34:C38"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E28:E33"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F28:F33"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="M21:M24"/>
+    <mergeCell ref="A25:C27"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="A28:C33"/>
+    <mergeCell ref="M28:M30"/>
+    <mergeCell ref="A21:C24"/>
+    <mergeCell ref="G21:G41"/>
+    <mergeCell ref="A39:C41"/>
+    <mergeCell ref="L39:L41"/>
+    <mergeCell ref="K21:K41"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="L34:L38"/>
+    <mergeCell ref="J34:J38"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="H28:H33"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="I12:J12"/>
     <mergeCell ref="D21:D24"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:G10"/>
@@ -1930,66 +2001,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="I9:J9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="A19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M24"/>
-    <mergeCell ref="A25:C27"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="A28:C33"/>
-    <mergeCell ref="M28:M30"/>
-    <mergeCell ref="A21:C24"/>
-    <mergeCell ref="G21:G41"/>
-    <mergeCell ref="A39:C41"/>
-    <mergeCell ref="L39:L41"/>
-    <mergeCell ref="K21:K41"/>
-    <mergeCell ref="L21:L24"/>
-    <mergeCell ref="L34:L38"/>
-    <mergeCell ref="J34:J38"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="H28:H33"/>
-    <mergeCell ref="H34:H38"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="J39:J41"/>
-    <mergeCell ref="I21:I41"/>
-    <mergeCell ref="A34:C38"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E28:E33"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F28:F33"/>
-    <mergeCell ref="F34:F38"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="H21:H24"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="D42:M42"/>
-    <mergeCell ref="L28:L33"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="J28:J33"/>
-    <mergeCell ref="M34:M37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1998,12 +2009,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="dd128a87-8000-4219-ba10-7cdcd0c49e6f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2242,17 +2252,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="dd128a87-8000-4219-ba10-7cdcd0c49e6f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCE42BE9-5CB5-4833-8377-DD59E435EDA7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{167F625F-070B-4A4E-BB00-AE07C3F9A4DE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="dd128a87-8000-4219-ba10-7cdcd0c49e6f"/>
+    <ds:schemaRef ds:uri="b29b449e-7162-44aa-9763-2c5c9b64f3a6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2277,18 +2297,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{167F625F-070B-4A4E-BB00-AE07C3F9A4DE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCE42BE9-5CB5-4833-8377-DD59E435EDA7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="dd128a87-8000-4219-ba10-7cdcd0c49e6f"/>
-    <ds:schemaRef ds:uri="b29b449e-7162-44aa-9763-2c5c9b64f3a6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SYLLABUS.xlsx
+++ b/SYLLABUS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unaulaedu-my.sharepoint.com/personal/erika_badilloen_unaula_edu_co/Documents/1 Econometria/1 ECONOMETRIA I-UNAULA/Administrativo/2024-2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\OneDrive - Universidad Autónoma Latinoamericana\1 Econometria\1 ECONOMETRIA I-UNAULA\Administrativo\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="8_{1B2D6B9B-7A5E-4E0A-B636-B9120AABC182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E68CFF95-E097-44F5-8A4E-7B40AA98912E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F694B2-C661-4F0D-8F0D-92E1BC0433BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -747,10 +747,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1052,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32E99E6-F569-4B34-A543-247EB1F280A6}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:D24"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1120,9 +1116,7 @@
       <c r="I3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="11">
-        <v>45689</v>
-      </c>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="17"/>
@@ -2009,14 +2003,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="dd128a87-8000-4219-ba10-7cdcd0c49e6f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100021BDFB3DE389241985DD3ECE6A883C1" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd46bceb14d12cbf3416067b4b46f7e4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b29b449e-7162-44aa-9763-2c5c9b64f3a6" xmlns:ns4="dd128a87-8000-4219-ba10-7cdcd0c49e6f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dead0d01be59ea959339d537441418d2" ns3:_="" ns4:_="">
     <xsd:import namespace="b29b449e-7162-44aa-9763-2c5c9b64f3a6"/>
@@ -2251,7 +2237,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2260,24 +2246,15 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{167F625F-070B-4A4E-BB00-AE07C3F9A4DE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="dd128a87-8000-4219-ba10-7cdcd0c49e6f"/>
-    <ds:schemaRef ds:uri="b29b449e-7162-44aa-9763-2c5c9b64f3a6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="dd128a87-8000-4219-ba10-7cdcd0c49e6f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{226BD247-9B1A-40C7-AF02-C9B9A9F25AE6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2296,10 +2273,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCE42BE9-5CB5-4833-8377-DD59E435EDA7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{167F625F-070B-4A4E-BB00-AE07C3F9A4DE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="dd128a87-8000-4219-ba10-7cdcd0c49e6f"/>
+    <ds:schemaRef ds:uri="b29b449e-7162-44aa-9763-2c5c9b64f3a6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>